--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_594.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_594.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33234-d251537-Reviews-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>59</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Quality-Inn-And-Suites-Walnut.h20865.Hotel-Information?chkin=6%2F24%2F2018&amp;chkout=6%2F25%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1529169094028&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=ccc7a01e-3445-4591-8626-82e039b19e67&amp;mctc=9&amp;exp_dp=89.1&amp;exp_ts=1529169094596&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +538,15 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
       <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +568,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_594.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_594.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,827 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r487695064-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>33234</t>
+  </si>
+  <si>
+    <t>251537</t>
+  </si>
+  <si>
+    <t>487695064</t>
+  </si>
+  <si>
+    <t>05/25/2017</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>I booked to stay here to try a different hotel in the area, I now realize how good I had it at the other establishments.There was only ever one person at the front desk, both on check in and check out there was one person being looked after - and a substantial wait for me given I was the only one waiting around. Everybody hates being made to wait around for no reason.The hotel itself it weird in layout, with stairs and ramps everywhere. Walking down the hallways and entering the room, I could tell people had smoked in here before.The room itself was practical, but quite old in decor. The bed was moderately comfortable and pillows ok. The shower was average, pressure could have been much better.What annoyed me most other than having to wait at the front desk, was the noise in the hotel. It appears to be made out of wood, so you can hear everyone walking around and the place creaks all night. Not a very relaxing stay.I would only recommend staying here if you got an amazing rate cheaper than other hotels in the area. I was not comfortable here.Otherwise the hotel was close to the freeway and had a nice looking pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I booked to stay here to try a different hotel in the area, I now realize how good I had it at the other establishments.There was only ever one person at the front desk, both on check in and check out there was one person being looked after - and a substantial wait for me given I was the only one waiting around. Everybody hates being made to wait around for no reason.The hotel itself it weird in layout, with stairs and ramps everywhere. Walking down the hallways and entering the room, I could tell people had smoked in here before.The room itself was practical, but quite old in decor. The bed was moderately comfortable and pillows ok. The shower was average, pressure could have been much better.What annoyed me most other than having to wait at the front desk, was the noise in the hotel. It appears to be made out of wood, so you can hear everyone walking around and the place creaks all night. Not a very relaxing stay.I would only recommend staying here if you got an amazing rate cheaper than other hotels in the area. I was not comfortable here.Otherwise the hotel was close to the freeway and had a nice looking pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r486906032-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>486906032</t>
+  </si>
+  <si>
+    <t>05/23/2017</t>
+  </si>
+  <si>
+    <t>LOUD</t>
+  </si>
+  <si>
+    <t>Overall nice place, nice decor, good amenities. Larger mini fridge, sofa in my King room, Hate the little square pillowsSmaller flat screen, attached to the wall, so no turning it toward you and its as far away as it can getBiggest problem is walls do not have adequate (if any) sound insulation. I had families on each side and had lots of difficulty sleeping. I checked out 5 days early and went to another hotel not far away.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r457024127-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>457024127</t>
+  </si>
+  <si>
+    <t>02/03/2017</t>
+  </si>
+  <si>
+    <t>1 week stay</t>
+  </si>
+  <si>
+    <t>Stayed at Quality Inn Walnut for a week while passing through town. The room was clean and efficient with everything I needed including fridge and microwave. Use of business center and wifi were free. Breakfast was varied with hot and cold choices  Location was centrally located for the various activities I needed to accomplish. I will stay again when I return to this area</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r421025020-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>421025020</t>
+  </si>
+  <si>
+    <t>09/21/2016</t>
+  </si>
+  <si>
+    <t>Good Stay, Nothing Exceptional</t>
+  </si>
+  <si>
+    <t>We stayed here in conjuction with the Take Tours service, and we were both surprised at the nice stay, but also disappointed in the location. We had a nice room, with nice service, a great breakfast each morning, and very few complaints. It was just a nice basic hotel stay!  However, the location was much farther away from Los Angeles than we thought, and everything in the town nearby is Asian.  But, overall, it was a decent stay, and I would recommend it if you want to be secluded in a relatively quiet town far from the main cities.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>qiwalnut, Front Office Manager at Quality Inn &amp; Suites Walnut, responded to this reviewResponded September 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 23, 2016</t>
+  </si>
+  <si>
+    <t>We stayed here in conjuction with the Take Tours service, and we were both surprised at the nice stay, but also disappointed in the location. We had a nice room, with nice service, a great breakfast each morning, and very few complaints. It was just a nice basic hotel stay!  However, the location was much farther away from Los Angeles than we thought, and everything in the town nearby is Asian.  But, overall, it was a decent stay, and I would recommend it if you want to be secluded in a relatively quiet town far from the main cities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r416931402-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>416931402</t>
+  </si>
+  <si>
+    <t>09/10/2016</t>
+  </si>
+  <si>
+    <t>Rude and Arrogant Alex</t>
+  </si>
+  <si>
+    <t>I just tried  to check in to the Quality Inn on Fairway Drive in Walnut, CA and opted to delay it because the person manning the front desk, Alex, is a very rude and arrogant young man. I was asked to wait because they are changing shifts. After waiting for about 5 minutes,  I asked how much longer it will take so I can gauge if I need to come back at a later time, he said just a few minutes longer. Then he said something under his breath, "it's not like it's an emergency." He finally called me up to the counter and I confronted him about his comment and told him that it was very rude of him to say that. He was surprised that I heard what he said and responded, "I was not talking to you." Instead of apologizing for the comment, he said that I was rude too for asking him "how much longer" with an attitude. Please educate and train your front desk personnel since they are the face of your hotel, to be courteous and be more professional...it goes a long way! I haven't even started my stay and I'm already looking forward to checking out.MoreShow less</t>
+  </si>
+  <si>
+    <t>qiwalnut, Front Office Manager at Quality Inn &amp; Suites Walnut, responded to this reviewResponded September 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2016</t>
+  </si>
+  <si>
+    <t>I just tried  to check in to the Quality Inn on Fairway Drive in Walnut, CA and opted to delay it because the person manning the front desk, Alex, is a very rude and arrogant young man. I was asked to wait because they are changing shifts. After waiting for about 5 minutes,  I asked how much longer it will take so I can gauge if I need to come back at a later time, he said just a few minutes longer. Then he said something under his breath, "it's not like it's an emergency." He finally called me up to the counter and I confronted him about his comment and told him that it was very rude of him to say that. He was surprised that I heard what he said and responded, "I was not talking to you." Instead of apologizing for the comment, he said that I was rude too for asking him "how much longer" with an attitude. Please educate and train your front desk personnel since they are the face of your hotel, to be courteous and be more professional...it goes a long way! I haven't even started my stay and I'm already looking forward to checking out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r401696371-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>401696371</t>
+  </si>
+  <si>
+    <t>08/05/2016</t>
+  </si>
+  <si>
+    <t>Not so good</t>
+  </si>
+  <si>
+    <t>2nd floor is much nicer than 1st, stayed there for a baseball tournament, kids running around, which I didn't mind being I was there for a tournament and that what brings teams together and makes memories, went to work out, clock is an hour off, put me behind schedule I told the front desk stating people are from out of town and other countries, his answer was don't you have a phone.....the staff was the worst I have every had to deal with there answer for every question was we don't have that or no, the made service was great, maintenance of the building was terrible my son scrapped his arm on a nail in the main hallway , every night we were there kids were swimming till 3am, again I didn't mind the kids, the one night there was a different manager he kicked the kids out at 10:30, now there were a lot of kids in the pool, and they were probably louder than usual being the tournment was over and they were blowing off steam, he shut the lights off in the pool area with 20 kids running around, big safety issue. I do not recommend this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>qiwalnut, Front Office Manager at Quality Inn &amp; Suites Walnut, responded to this reviewResponded August 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 18, 2016</t>
+  </si>
+  <si>
+    <t>2nd floor is much nicer than 1st, stayed there for a baseball tournament, kids running around, which I didn't mind being I was there for a tournament and that what brings teams together and makes memories, went to work out, clock is an hour off, put me behind schedule I told the front desk stating people are from out of town and other countries, his answer was don't you have a phone.....the staff was the worst I have every had to deal with there answer for every question was we don't have that or no, the made service was great, maintenance of the building was terrible my son scrapped his arm on a nail in the main hallway , every night we were there kids were swimming till 3am, again I didn't mind the kids, the one night there was a different manager he kicked the kids out at 10:30, now there were a lot of kids in the pool, and they were probably louder than usual being the tournment was over and they were blowing off steam, he shut the lights off in the pool area with 20 kids running around, big safety issue. I do not recommend this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r376307157-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>376307157</t>
+  </si>
+  <si>
+    <t>05/24/2016</t>
+  </si>
+  <si>
+    <t>meal &amp; location</t>
+  </si>
+  <si>
+    <t>supply different kind of breakfast for different country. the location is perfect. shopping plaza with walking distance. you can all kind food in the plaza, including Asian supermarket and American supermarket as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>qiwalnut, Front Office Manager at Quality Inn &amp; Suites Walnut, responded to this reviewResponded May 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 26, 2016</t>
+  </si>
+  <si>
+    <t>supply different kind of breakfast for different country. the location is perfect. shopping plaza with walking distance. you can all kind food in the plaza, including Asian supermarket and American supermarket as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r369677141-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>369677141</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>Robert M. rude employee</t>
+  </si>
+  <si>
+    <t>This review is solely for my experience making a reservation. I called Quality Inn &amp; Suites (Walnut) to make a reservation. The guy who answered the phone, Robert M., was very rude and arrogant. I mentioned the company that I work for and I said that I know that we have a corporate rate, and I wanted to verify how much our corporate rate was. It was not until the third time that I mentioned the corporate rate that Robert actually told me what the rate was, which I have been requesting for from the time the conversation started. 
+He asked me for my details like my name, my address, and phone #, and then my credit card information. At this point, we have not even discussed the final amount yet and he wanted to get my credit card details. He was very adamant about getting my credit card information, and of course I was hesitant to give it because we have not even agreed on the rate and final amount yet. Isn’t that a given? Shouldn’t the amount and the terms be clear to the customer first before getting her payment? I also wanted to know first if the transaction is cancelable, as well as the last day of cancellation before I agree to pay, and he was like, no give me your credit card information. That struck me as strange, not to mention unprofessional and rude. Even cashiers...This review is solely for my experience making a reservation. I called Quality Inn &amp; Suites (Walnut) to make a reservation. The guy who answered the phone, Robert M., was very rude and arrogant. I mentioned the company that I work for and I said that I know that we have a corporate rate, and I wanted to verify how much our corporate rate was. It was not until the third time that I mentioned the corporate rate that Robert actually told me what the rate was, which I have been requesting for from the time the conversation started. He asked me for my details like my name, my address, and phone #, and then my credit card information. At this point, we have not even discussed the final amount yet and he wanted to get my credit card details. He was very adamant about getting my credit card information, and of course I was hesitant to give it because we have not even agreed on the rate and final amount yet. Isn’t that a given? Shouldn’t the amount and the terms be clear to the customer first before getting her payment? I also wanted to know first if the transaction is cancelable, as well as the last day of cancellation before I agree to pay, and he was like, no give me your credit card information. That struck me as strange, not to mention unprofessional and rude. Even cashiers at the grocery would tell you the amount to be paid before they ask for your credit card. So I gave a summary of the transaction — rate/night, inclusive dates, final amount — and I asked him to confirm. He cut me off when I was still speaking and in a very irritated voice, he said, “NOW CAN I GET YOUR CREDIT CARD DETAILS?” Is that an acceptable way to talk to a customer? Why would someone hand over his or her credit card details for something that isn’t very clear to the customer yet? Aren’t your reservation agents trained to make a summary of the reservation, confirm with the guest if this is correct, AND THEN THAT’S THE ONLY TIME THEY ASK FOR PAYMENT. On top of that, he asked me to repeat information I’ve already told him several times! Which I wouldn’t have minded if he was courteous and polite!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>qiwalnut, Front Office Manager at Quality Inn &amp; Suites Walnut, responded to this reviewResponded May 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2016</t>
+  </si>
+  <si>
+    <t>This review is solely for my experience making a reservation. I called Quality Inn &amp; Suites (Walnut) to make a reservation. The guy who answered the phone, Robert M., was very rude and arrogant. I mentioned the company that I work for and I said that I know that we have a corporate rate, and I wanted to verify how much our corporate rate was. It was not until the third time that I mentioned the corporate rate that Robert actually told me what the rate was, which I have been requesting for from the time the conversation started. 
+He asked me for my details like my name, my address, and phone #, and then my credit card information. At this point, we have not even discussed the final amount yet and he wanted to get my credit card details. He was very adamant about getting my credit card information, and of course I was hesitant to give it because we have not even agreed on the rate and final amount yet. Isn’t that a given? Shouldn’t the amount and the terms be clear to the customer first before getting her payment? I also wanted to know first if the transaction is cancelable, as well as the last day of cancellation before I agree to pay, and he was like, no give me your credit card information. That struck me as strange, not to mention unprofessional and rude. Even cashiers...This review is solely for my experience making a reservation. I called Quality Inn &amp; Suites (Walnut) to make a reservation. The guy who answered the phone, Robert M., was very rude and arrogant. I mentioned the company that I work for and I said that I know that we have a corporate rate, and I wanted to verify how much our corporate rate was. It was not until the third time that I mentioned the corporate rate that Robert actually told me what the rate was, which I have been requesting for from the time the conversation started. He asked me for my details like my name, my address, and phone #, and then my credit card information. At this point, we have not even discussed the final amount yet and he wanted to get my credit card details. He was very adamant about getting my credit card information, and of course I was hesitant to give it because we have not even agreed on the rate and final amount yet. Isn’t that a given? Shouldn’t the amount and the terms be clear to the customer first before getting her payment? I also wanted to know first if the transaction is cancelable, as well as the last day of cancellation before I agree to pay, and he was like, no give me your credit card information. That struck me as strange, not to mention unprofessional and rude. Even cashiers at the grocery would tell you the amount to be paid before they ask for your credit card. So I gave a summary of the transaction — rate/night, inclusive dates, final amount — and I asked him to confirm. He cut me off when I was still speaking and in a very irritated voice, he said, “NOW CAN I GET YOUR CREDIT CARD DETAILS?” Is that an acceptable way to talk to a customer? Why would someone hand over his or her credit card details for something that isn’t very clear to the customer yet? Aren’t your reservation agents trained to make a summary of the reservation, confirm with the guest if this is correct, AND THEN THAT’S THE ONLY TIME THEY ASK FOR PAYMENT. On top of that, he asked me to repeat information I’ve already told him several times! Which I wouldn’t have minded if he was courteous and polite!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r363695818-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>363695818</t>
+  </si>
+  <si>
+    <t>04/12/2016</t>
+  </si>
+  <si>
+    <t>Very nice place to stay for the night</t>
+  </si>
+  <si>
+    <t>First time staying at this motel, but it did not disappoint at all ... except for a few things.- when I first arrived at the motel trying to check in, there was not place out in the front for me to park.  I had to double park to register.- there's only 1 elevator on the other side of the building and we had to walk a pretty long distance to get to our room.- the wall was pretty thin since I could hear the sound from the TV next door.- there was not enough tables for guests during breakfast time.  we had to sit on the couch to finish our breakfast.Other than that, the overnight stay was fine.  The room was clean and  spacious.  Free wifi in the room was decent.  Would definitely come back again.MoreShow less</t>
+  </si>
+  <si>
+    <t>qiwalnut, Front Office Manager at Quality Inn &amp; Suites Walnut, responded to this reviewResponded April 14, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2016</t>
+  </si>
+  <si>
+    <t>First time staying at this motel, but it did not disappoint at all ... except for a few things.- when I first arrived at the motel trying to check in, there was not place out in the front for me to park.  I had to double park to register.- there's only 1 elevator on the other side of the building and we had to walk a pretty long distance to get to our room.- the wall was pretty thin since I could hear the sound from the TV next door.- there was not enough tables for guests during breakfast time.  we had to sit on the couch to finish our breakfast.Other than that, the overnight stay was fine.  The room was clean and  spacious.  Free wifi in the room was decent.  Would definitely come back again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r320513426-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>320513426</t>
+  </si>
+  <si>
+    <t>10/20/2015</t>
+  </si>
+  <si>
+    <t>It was alright.</t>
+  </si>
+  <si>
+    <t>For the most part, it was an okay place to stay.  We were looking for location.  The room had everything we needed and there were no problems.  The woman, working the front desk, was helpful with restaurant suggestions.MoreShow less</t>
+  </si>
+  <si>
+    <t>qiwalnut, Front Office Manager at Quality Inn &amp; Suites Walnut, responded to this reviewResponded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2015</t>
+  </si>
+  <si>
+    <t>For the most part, it was an okay place to stay.  We were looking for location.  The room had everything we needed and there were no problems.  The woman, working the front desk, was helpful with restaurant suggestions.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r312813638-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>312813638</t>
+  </si>
+  <si>
+    <t>09/22/2015</t>
+  </si>
+  <si>
+    <t>Clean and Comfortable</t>
+  </si>
+  <si>
+    <t>This past weekend I spent a night at the Quality Inn and Suites in Walnut, CA. My room was very clean and the bed was comfortable. Staff were very friendly and helpful and the breakfast was adequate. There are multiple restaurants within a few blocks of the hotel and a golf course right next door. In addition, access to the 60 freeway is quick and easy.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>qiwalnut, Front Office Manager at Quality Inn &amp; Suites Walnut, responded to this reviewResponded September 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2015</t>
+  </si>
+  <si>
+    <t>This past weekend I spent a night at the Quality Inn and Suites in Walnut, CA. My room was very clean and the bed was comfortable. Staff were very friendly and helpful and the breakfast was adequate. There are multiple restaurants within a few blocks of the hotel and a golf course right next door. In addition, access to the 60 freeway is quick and easy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r310234562-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>310234562</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Professional Friendly Staffs</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel because my family have to attend a 25th wedding anniversary of my cousin at Diamond Bar. The front desk agent Jessica was nice and gave us a room as per my request. The room overlook the pool and has a small refrigerator and supposedly a microwave oven. I called Jessica at front desk to report that my room does not have a microwave and she saw to it that a microwave gets to my room as we are spending 4 night at the hotel. Only observation is that during breakfast, the dining room was not big enough to accommodate the guests and some guests had to use the lobby's furniture to be able to eat comfortably. The rooms are clean but you can tell that the hotel is showing its age. Plenty of free parking and easy access to freeway. There were not much restaurant around to go to. I gave it a 4 star for the friendliness of the staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>qiwalnut, Front Office Manager at Quality Inn &amp; Suites Walnut, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel because my family have to attend a 25th wedding anniversary of my cousin at Diamond Bar. The front desk agent Jessica was nice and gave us a room as per my request. The room overlook the pool and has a small refrigerator and supposedly a microwave oven. I called Jessica at front desk to report that my room does not have a microwave and she saw to it that a microwave gets to my room as we are spending 4 night at the hotel. Only observation is that during breakfast, the dining room was not big enough to accommodate the guests and some guests had to use the lobby's furniture to be able to eat comfortably. The rooms are clean but you can tell that the hotel is showing its age. Plenty of free parking and easy access to freeway. There were not much restaurant around to go to. I gave it a 4 star for the friendliness of the staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r283663559-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>283663559</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Decent hotel</t>
+  </si>
+  <si>
+    <t>I stayed here by myself for two nonconsecutive nights while doing a tour. The rooms and beds are big, but the 'pillows' on the bed are actually just like couch cushions and sleeping was very uncomfortable. The first room I had faced the pool and the second faced the street, but I had no issues with noise for either room. There is a free buffet breakfast in the morning which is ok. It's not really close to anything though, and you have to walk about 15-20 minutes to get to places to eat. If you're just looking for somewhere for a night or two, it's fine but if you want to actually sight-see or get out it's probably not the best choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>qiwalnut, Front Office Manager at Quality Inn &amp; Suites Walnut, responded to this reviewResponded June 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here by myself for two nonconsecutive nights while doing a tour. The rooms and beds are big, but the 'pillows' on the bed are actually just like couch cushions and sleeping was very uncomfortable. The first room I had faced the pool and the second faced the street, but I had no issues with noise for either room. There is a free buffet breakfast in the morning which is ok. It's not really close to anything though, and you have to walk about 15-20 minutes to get to places to eat. If you're just looking for somewhere for a night or two, it's fine but if you want to actually sight-see or get out it's probably not the best choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r264100381-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>264100381</t>
+  </si>
+  <si>
+    <t>04/06/2015</t>
+  </si>
+  <si>
+    <t>Consultant</t>
+  </si>
+  <si>
+    <t>Room smelled of smoke very noisy with constant freeway noise. Asked to be moved after work and was told I would have to pay for both rooms. Hallway smells of smoke. Back security door doesnt even shut so anyone can walk in. Dirty carpets, no microwave, breakfast starts after many business people leave. Avoid this hotel.</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r262119516-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>262119516</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>Great Hotel!!! Loved Everything about it.  Staff went above and beyond what they are paid to do.  Breakfast was great.  Lots of options, I enjoyed the sausage and made to order waffles.  I will be staying here next time I need a hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>qiwalnut, Front Office Manager at Quality Inn &amp; Suites Walnut, responded to this reviewResponded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2015</t>
+  </si>
+  <si>
+    <t>Great Hotel!!! Loved Everything about it.  Staff went above and beyond what they are paid to do.  Breakfast was great.  Lots of options, I enjoyed the sausage and made to order waffles.  I will be staying here next time I need a hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r251172501-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>251172501</t>
+  </si>
+  <si>
+    <t>01/26/2015</t>
+  </si>
+  <si>
+    <t>It's okay..not much "quality" though</t>
+  </si>
+  <si>
+    <t>Just stayed at this hotel for the night, not much quality though. The room what needed to do to stay for the night however there are a few problems that I have to point out to those who want to stay there. The room smelled like bleach right as I walked in which wasn't cool but at least I hope it was used to have the room cleaned..CORRECTLY. I walked over to the bed and almost every step I took the floor would creak, it was a little too much for me not to pass it up. But my biggest problem for the room overall was the internet access. I called the front desk a few times asking about the internet and they told me "yes, we're aware of the problem, were working on it." My biggest annoyance was that the front desk associate didn't bother to let me know about it when I was checking in..I think it's the least you could. It does what any simple hotel needs, but don't expect anything amazing.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Just stayed at this hotel for the night, not much quality though. The room what needed to do to stay for the night however there are a few problems that I have to point out to those who want to stay there. The room smelled like bleach right as I walked in which wasn't cool but at least I hope it was used to have the room cleaned..CORRECTLY. I walked over to the bed and almost every step I took the floor would creak, it was a little too much for me not to pass it up. But my biggest problem for the room overall was the internet access. I called the front desk a few times asking about the internet and they told me "yes, we're aware of the problem, were working on it." My biggest annoyance was that the front desk associate didn't bother to let me know about it when I was checking in..I think it's the least you could. It does what any simple hotel needs, but don't expect anything amazing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r246049758-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>246049758</t>
+  </si>
+  <si>
+    <t>12/27/2014</t>
+  </si>
+  <si>
+    <t>Where's your Quality?</t>
+  </si>
+  <si>
+    <t>The hotel is old, room cleanest very poor, pillows so small, like we use for decorates the sofa. ??????The bathroom:  washing basin don't understand why is so low. I mean no standard high. The tab for bathtub almost brokenThis hotel that i can said good about it! It's the bed. Very nice and comfortableMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>qiwalnut, Front Office Manager at Quality Inn &amp; Suites Walnut, responded to this reviewResponded December 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2014</t>
+  </si>
+  <si>
+    <t>The hotel is old, room cleanest very poor, pillows so small, like we use for decorates the sofa. ??????The bathroom:  washing basin don't understand why is so low. I mean no standard high. The tab for bathtub almost brokenThis hotel that i can said good about it! It's the bed. Very nice and comfortableMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r229030755-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>229030755</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>Be careful</t>
+  </si>
+  <si>
+    <t>The room cleainess is a hit and miss situation. Building is old but ok. The security is not very tight where the side doors are usually left opened.Be aware that You Will Be Scold if you try to take breakfast to eat in your room, or grab a quick piece to go out (to your travel spots cus you slept late). THERE IS NO SIGN but the staff stopped me in front of people as if I am a thief. Talk about being humiliated. They said that's the policy and you can only eat in the lobby where sometimes there isn't any seat. Well then, at least put up a sign!!! I've stayed in many hotels and this is the first one disallow you to bring food into the room to eat.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>qiwalnut, Front Office Manager at Quality Inn &amp; Suites Walnut, responded to this reviewResponded September 16, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 16, 2014</t>
+  </si>
+  <si>
+    <t>The room cleainess is a hit and miss situation. Building is old but ok. The security is not very tight where the side doors are usually left opened.Be aware that You Will Be Scold if you try to take breakfast to eat in your room, or grab a quick piece to go out (to your travel spots cus you slept late). THERE IS NO SIGN but the staff stopped me in front of people as if I am a thief. Talk about being humiliated. They said that's the policy and you can only eat in the lobby where sometimes there isn't any seat. Well then, at least put up a sign!!! I've stayed in many hotels and this is the first one disallow you to bring food into the room to eat.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r209965748-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>209965748</t>
+  </si>
+  <si>
+    <t>06/11/2014</t>
+  </si>
+  <si>
+    <t>Great Inn</t>
+  </si>
+  <si>
+    <t>I do not know what people expect from this place. Do people expect 5 star luxury resort with spa, jacuzzi, fine dining, etc, found in Sheraton or Hilton at this place? I've stayed here a couple of times, and I was satisfied with my room. Both times, I had 1 king bed. I felt it was clean, comfortable, and the bathroom with a tub, was clean too.I do like their breakfast selection, more than other qualities, with american and asian selection. their lobby is spacious and big, and so is their dining area and tables. The only downside, is their location, meaning no shops or restaurants within walking distance. You need a car to go anywhere. If you don't have a car, then you are stuck here.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>I do not know what people expect from this place. Do people expect 5 star luxury resort with spa, jacuzzi, fine dining, etc, found in Sheraton or Hilton at this place? I've stayed here a couple of times, and I was satisfied with my room. Both times, I had 1 king bed. I felt it was clean, comfortable, and the bathroom with a tub, was clean too.I do like their breakfast selection, more than other qualities, with american and asian selection. their lobby is spacious and big, and so is their dining area and tables. The only downside, is their location, meaning no shops or restaurants within walking distance. You need a car to go anywhere. If you don't have a car, then you are stuck here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r205754190-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>205754190</t>
+  </si>
+  <si>
+    <t>05/15/2014</t>
+  </si>
+  <si>
+    <t>I stay in hotels every week.  Unless you just flew in from Asian (welcome!) dont stay here.  WORST EVER!</t>
+  </si>
+  <si>
+    <t>I stay in hotels week in and week out.  But this has been the worst of the year.  Don't stay here for business.  I'm not fussy. But when you check in on a 107 degree day in LA, it will be 2016 degrees when you finally arrive at your room with this awfuk hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>qiwalnut, Manager at Quality Inn &amp; Suites Walnut, responded to this reviewResponded May 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2014</t>
+  </si>
+  <si>
+    <t>I stay in hotels week in and week out.  But this has been the worst of the year.  Don't stay here for business.  I'm not fussy. But when you check in on a 107 degree day in LA, it will be 2016 degrees when you finally arrive at your room with this awfuk hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r200366134-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>200366134</t>
+  </si>
+  <si>
+    <t>04/08/2014</t>
+  </si>
+  <si>
+    <t>Quality Inn Walnut Ca</t>
+  </si>
+  <si>
+    <t>This hotel always is our first choice for visiting family and friends in southern calif. Great rooms, a pool and free breakfast. Easy freeway access also. Outdoor pool is always clean and the spa is refreshing also.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>qiwalnut, Front Office Manager at Quality Inn &amp; Suites Walnut, responded to this reviewResponded April 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 14, 2014</t>
+  </si>
+  <si>
+    <t>This hotel always is our first choice for visiting family and friends in southern calif. Great rooms, a pool and free breakfast. Easy freeway access also. Outdoor pool is always clean and the spa is refreshing also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r151097952-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>151097952</t>
+  </si>
+  <si>
+    <t>01/31/2013</t>
+  </si>
+  <si>
+    <t>bad customer service!!!</t>
+  </si>
+  <si>
+    <t>dear head of the hotel,the front desk clerk was very rude and impolite. i think her name was mish or something close to that name. she didn't seem like she wanted to help me out and seemed very aggrevated when i was trying to book a room. she didn't seem very willing to help out and seemed like she was just being there just to pass the time and make easy money. she don't belong in the customer service and she don't belong in that hotel as a clerk; she should rather be a room cleaning maid or something that don't deal with customer service. she is way too rude to be in customer service. before she even thinks about working in customer service she needs to get her attitude in check. if you guys have her there working as a front desk clerk your bound to get that place with no customers and go out of business. please consider moving her to a different department or remove her from that position because she has an attitude problem and lack of motivation to deal with customers like me who will never try to book a room due to bad service and unwillingness to help with a friendly approach.thank you for your time and hope you take my word into consideration.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>qiwalnut, Manager at Quality Inn &amp; Suites Walnut, responded to this reviewResponded February 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2013</t>
+  </si>
+  <si>
+    <t>dear head of the hotel,the front desk clerk was very rude and impolite. i think her name was mish or something close to that name. she didn't seem like she wanted to help me out and seemed very aggrevated when i was trying to book a room. she didn't seem very willing to help out and seemed like she was just being there just to pass the time and make easy money. she don't belong in the customer service and she don't belong in that hotel as a clerk; she should rather be a room cleaning maid or something that don't deal with customer service. she is way too rude to be in customer service. before she even thinks about working in customer service she needs to get her attitude in check. if you guys have her there working as a front desk clerk your bound to get that place with no customers and go out of business. please consider moving her to a different department or remove her from that position because she has an attitude problem and lack of motivation to deal with customers like me who will never try to book a room due to bad service and unwillingness to help with a friendly approach.thank you for your time and hope you take my word into consideration.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r149733473-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>149733473</t>
+  </si>
+  <si>
+    <t>01/15/2013</t>
+  </si>
+  <si>
+    <t>Motion Detector Craziness</t>
+  </si>
+  <si>
+    <t>Wow, these folks have gone WAY overboard with these things.  Of course there's one in the bathroom which seems pretty standard these days.  BUT ALSO, they have the TV on one.  I was watching the AM news when I went to the bathroom and shaved, brushed my teeth and showered.  As I was drying off I realized the TV was OFF.  And if that's not enough the heater / AC unit is on one also.  Last night was the coldest night here in 22 years according to the weatherman.  In the middle of the night I realized the heater had turned off.  I had enough blankets to keep me warm but when I got out of bed the room was freezing.  These folks have taken things way to far.  This was my first visit here and it'll be my last.  A very dated property.MoreShow less</t>
+  </si>
+  <si>
+    <t>qiwalnut, Manager at Quality Inn &amp; Suites Walnut, responded to this reviewResponded February 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2013</t>
+  </si>
+  <si>
+    <t>Wow, these folks have gone WAY overboard with these things.  Of course there's one in the bathroom which seems pretty standard these days.  BUT ALSO, they have the TV on one.  I was watching the AM news when I went to the bathroom and shaved, brushed my teeth and showered.  As I was drying off I realized the TV was OFF.  And if that's not enough the heater / AC unit is on one also.  Last night was the coldest night here in 22 years according to the weatherman.  In the middle of the night I realized the heater had turned off.  I had enough blankets to keep me warm but when I got out of bed the room was freezing.  These folks have taken things way to far.  This was my first visit here and it'll be my last.  A very dated property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r149292649-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>149292649</t>
+  </si>
+  <si>
+    <t>01/09/2013</t>
+  </si>
+  <si>
+    <t>Average Inn and Suites, not Quality</t>
+  </si>
+  <si>
+    <t>The lobby looks fantastic, but that appearance does not carry over to the rest of the Hotel.  The rooms appear nice at first look, but they do not stand up to a long appraisal.  The painting is very sloppy, with missed spots on the ceiling above the bed, peeling and sloppy wallpaper work and the rooms look worn. Single pane windows also not very good at keeping out weather and noise.  The elevator has a evil mind of its own, the door shutting rapidly, and the retract mechanism for the door sometimes not working.  And to increase your nervousness, I have never heard of Amtech elevators!  The hallways are dusty, with bits of paper etc on the floor.  My daughters were given a room where the floor squeaked so bad when walking in the room we had to  move them.
+The "dining area" has chairs and tables that are way to big for the area they use, so much so you cannot move between tables.  The breakfast is heavy on Asian food, their main clientele.
+Housekeeping is hit or miss.  The coffee maker had a used filter in it when we checked in and was never cleaned by housekeeping our entire stay.  Towels may or may not be replaced.  Alarm clock fastened to the outlet so it could not be moved (or stolen)  One room had the pole lamp with a 30 degree tilt to the side.
+However, the redeeming...The lobby looks fantastic, but that appearance does not carry over to the rest of the Hotel.  The rooms appear nice at first look, but they do not stand up to a long appraisal.  The painting is very sloppy, with missed spots on the ceiling above the bed, peeling and sloppy wallpaper work and the rooms look worn. Single pane windows also not very good at keeping out weather and noise.  The elevator has a evil mind of its own, the door shutting rapidly, and the retract mechanism for the door sometimes not working.  And to increase your nervousness, I have never heard of Amtech elevators!  The hallways are dusty, with bits of paper etc on the floor.  My daughters were given a room where the floor squeaked so bad when walking in the room we had to  move them.The "dining area" has chairs and tables that are way to big for the area they use, so much so you cannot move between tables.  The breakfast is heavy on Asian food, their main clientele.Housekeeping is hit or miss.  The coffee maker had a used filter in it when we checked in and was never cleaned by housekeeping our entire stay.  Towels may or may not be replaced.  Alarm clock fastened to the outlet so it could not be moved (or stolen)  One room had the pole lamp with a 30 degree tilt to the side.However, the redeeming feature was the front desk staff, friendly, helpful and a delight to work with.MoreShow less</t>
+  </si>
+  <si>
+    <t>The lobby looks fantastic, but that appearance does not carry over to the rest of the Hotel.  The rooms appear nice at first look, but they do not stand up to a long appraisal.  The painting is very sloppy, with missed spots on the ceiling above the bed, peeling and sloppy wallpaper work and the rooms look worn. Single pane windows also not very good at keeping out weather and noise.  The elevator has a evil mind of its own, the door shutting rapidly, and the retract mechanism for the door sometimes not working.  And to increase your nervousness, I have never heard of Amtech elevators!  The hallways are dusty, with bits of paper etc on the floor.  My daughters were given a room where the floor squeaked so bad when walking in the room we had to  move them.
+The "dining area" has chairs and tables that are way to big for the area they use, so much so you cannot move between tables.  The breakfast is heavy on Asian food, their main clientele.
+Housekeeping is hit or miss.  The coffee maker had a used filter in it when we checked in and was never cleaned by housekeeping our entire stay.  Towels may or may not be replaced.  Alarm clock fastened to the outlet so it could not be moved (or stolen)  One room had the pole lamp with a 30 degree tilt to the side.
+However, the redeeming...The lobby looks fantastic, but that appearance does not carry over to the rest of the Hotel.  The rooms appear nice at first look, but they do not stand up to a long appraisal.  The painting is very sloppy, with missed spots on the ceiling above the bed, peeling and sloppy wallpaper work and the rooms look worn. Single pane windows also not very good at keeping out weather and noise.  The elevator has a evil mind of its own, the door shutting rapidly, and the retract mechanism for the door sometimes not working.  And to increase your nervousness, I have never heard of Amtech elevators!  The hallways are dusty, with bits of paper etc on the floor.  My daughters were given a room where the floor squeaked so bad when walking in the room we had to  move them.The "dining area" has chairs and tables that are way to big for the area they use, so much so you cannot move between tables.  The breakfast is heavy on Asian food, their main clientele.Housekeeping is hit or miss.  The coffee maker had a used filter in it when we checked in and was never cleaned by housekeeping our entire stay.  Towels may or may not be replaced.  Alarm clock fastened to the outlet so it could not be moved (or stolen)  One room had the pole lamp with a 30 degree tilt to the side.However, the redeeming feature was the front desk staff, friendly, helpful and a delight to work with.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r123061559-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>123061559</t>
+  </si>
+  <si>
+    <t>01/14/2012</t>
+  </si>
+  <si>
+    <t>Preferred business stay</t>
+  </si>
+  <si>
+    <t>We stay here frequently for business.  This hotel is quiet, very clean, and very comfortable.  The breakfast is very good and plenty of choices, the staff is pleasant, they have a shuttle, good neiborhood, and did I say quiet? plenty of places to eat nearby.The elevator is very, very slow.  It likes to close the doors while you're entering/exiting, it doesn't really hurt, but its very annoying.Very nice pool and spa.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>qiwalnut, Front Office Manager at Quality Inn &amp; Suites Walnut, responded to this reviewResponded November 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 28, 2012</t>
+  </si>
+  <si>
+    <t>We stay here frequently for business.  This hotel is quiet, very clean, and very comfortable.  The breakfast is very good and plenty of choices, the staff is pleasant, they have a shuttle, good neiborhood, and did I say quiet? plenty of places to eat nearby.The elevator is very, very slow.  It likes to close the doors while you're entering/exiting, it doesn't really hurt, but its very annoying.Very nice pool and spa.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r120284103-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>120284103</t>
+  </si>
+  <si>
+    <t>11/07/2011</t>
+  </si>
+  <si>
+    <t>Last minute help!</t>
+  </si>
+  <si>
+    <t>I was driving from WA to PHX, and had decided late on Saturday night that I wasn't going to make all the way into AZ, used the "around me" app in my phone to call several hotels in this area.  NONE were available, or weren't pet friendly..  Finally I called this Quality Inn, the gentleman on duty was very polite, took the time to give me excellent directions to the property, the room was perfect, quiet, and my little dog and I slept very well.  I'm writing the review primarily to give a big "thank you" to the employee who helped out late on a Saturday night.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>I was driving from WA to PHX, and had decided late on Saturday night that I wasn't going to make all the way into AZ, used the "around me" app in my phone to call several hotels in this area.  NONE were available, or weren't pet friendly..  Finally I called this Quality Inn, the gentleman on duty was very polite, took the time to give me excellent directions to the property, the room was perfect, quiet, and my little dog and I slept very well.  I'm writing the review primarily to give a big "thank you" to the employee who helped out late on a Saturday night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r116548893-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>116548893</t>
+  </si>
+  <si>
+    <t>08/10/2011</t>
+  </si>
+  <si>
+    <t>Sufficient</t>
+  </si>
+  <si>
+    <t>We stayed for 3 nights in 2 rooms that were next to eachother, but not connected. Check in was easy and quick. I requested a crib and it arrived promptly. The hallways are not air conditioned, and the rooms did not have their air conditioning on, so it took a while to cool down. The refrigerator was great to keep our drinks and the baby's milk cold. The room was spacious but little things like the toilet seat being broken and the outlets being loose were kind of annoying. The location of the hotel was convenient- right off the freeway and near Colima street where there are plenty of restaurants, grocery stores, etc. Having a complementary breakfast was great for the kids and was enough to hold us over til lunch. We are repeat customers here and will most likely stay here again if needed. MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed for 3 nights in 2 rooms that were next to eachother, but not connected. Check in was easy and quick. I requested a crib and it arrived promptly. The hallways are not air conditioned, and the rooms did not have their air conditioning on, so it took a while to cool down. The refrigerator was great to keep our drinks and the baby's milk cold. The room was spacious but little things like the toilet seat being broken and the outlets being loose were kind of annoying. The location of the hotel was convenient- right off the freeway and near Colima street where there are plenty of restaurants, grocery stores, etc. Having a complementary breakfast was great for the kids and was enough to hold us over til lunch. We are repeat customers here and will most likely stay here again if needed. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r54962247-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>54962247</t>
+  </si>
+  <si>
+    <t>02/01/2010</t>
+  </si>
+  <si>
+    <t>Embodiment of mediocrity</t>
+  </si>
+  <si>
+    <t>First - there is nothing 'obviously' wrong with the QI-Walnut, and the staff were vaguely helpful when help was firmly requested.
+But there is nothing 'good' about this property, either.  Rooms are average, and the property looks dog-eared and needs renovation.  Staff are pleasant but indifferent.  Location is a mixed blessing - near the freeway makes it handy to get around for appointments, but also there is some noise.
+Telling details: when I check in, there was no chair at the desk in my room.  Uh ...???  A chair was brought with a weak "sorry 'bout that" - I didn't seek nor need an apology, but the tone conveyed annoyance at having to come up with the chair.  
+The room smelled slightly musty and stale; the heater was old and even at low setting heated up the room to a near uncomfortable level.
+Several metal door frames in the corridor have, over time, simply separated away from the wall where they meet the floor.  Rust is evident.  This is not a security risk, but looks bad.
+The lobby is clean with ample copies of the USA Today for those inclined.  Breakfast was ... bizarre in its minimal aspect: cold cereals, and a few donuts, and some very bad coffee.  That's it.  Why bother?
+There were no cracked mirrors, no visibly dirty linens, or anything of that sort - but the place reeks of either no budget, or else a lack...First - there is nothing 'obviously' wrong with the QI-Walnut, and the staff were vaguely helpful when help was firmly requested.But there is nothing 'good' about this property, either.  Rooms are average, and the property looks dog-eared and needs renovation.  Staff are pleasant but indifferent.  Location is a mixed blessing - near the freeway makes it handy to get around for appointments, but also there is some noise.Telling details: when I check in, there was no chair at the desk in my room.  Uh ...???  A chair was brought with a weak "sorry 'bout that" - I didn't seek nor need an apology, but the tone conveyed annoyance at having to come up with the chair.  The room smelled slightly musty and stale; the heater was old and even at low setting heated up the room to a near uncomfortable level.Several metal door frames in the corridor have, over time, simply separated away from the wall where they meet the floor.  Rust is evident.  This is not a security risk, but looks bad.The lobby is clean with ample copies of the USA Today for those inclined.  Breakfast was ... bizarre in its minimal aspect: cold cereals, and a few donuts, and some very bad coffee.  That's it.  Why bother?There were no cracked mirrors, no visibly dirty linens, or anything of that sort - but the place reeks of either no budget, or else a lack of care.  The price is right, and if location is important, you won't be miserable staying here for a night on business.  But for anyone on a pleasure trip, move on to another place.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>qiwalnut, Assistant General Manager at Quality Inn &amp; Suites Walnut, responded to this reviewResponded February 19, 2010</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2010</t>
+  </si>
+  <si>
+    <t>First - there is nothing 'obviously' wrong with the QI-Walnut, and the staff were vaguely helpful when help was firmly requested.
+But there is nothing 'good' about this property, either.  Rooms are average, and the property looks dog-eared and needs renovation.  Staff are pleasant but indifferent.  Location is a mixed blessing - near the freeway makes it handy to get around for appointments, but also there is some noise.
+Telling details: when I check in, there was no chair at the desk in my room.  Uh ...???  A chair was brought with a weak "sorry 'bout that" - I didn't seek nor need an apology, but the tone conveyed annoyance at having to come up with the chair.  
+The room smelled slightly musty and stale; the heater was old and even at low setting heated up the room to a near uncomfortable level.
+Several metal door frames in the corridor have, over time, simply separated away from the wall where they meet the floor.  Rust is evident.  This is not a security risk, but looks bad.
+The lobby is clean with ample copies of the USA Today for those inclined.  Breakfast was ... bizarre in its minimal aspect: cold cereals, and a few donuts, and some very bad coffee.  That's it.  Why bother?
+There were no cracked mirrors, no visibly dirty linens, or anything of that sort - but the place reeks of either no budget, or else a lack...First - there is nothing 'obviously' wrong with the QI-Walnut, and the staff were vaguely helpful when help was firmly requested.But there is nothing 'good' about this property, either.  Rooms are average, and the property looks dog-eared and needs renovation.  Staff are pleasant but indifferent.  Location is a mixed blessing - near the freeway makes it handy to get around for appointments, but also there is some noise.Telling details: when I check in, there was no chair at the desk in my room.  Uh ...???  A chair was brought with a weak "sorry 'bout that" - I didn't seek nor need an apology, but the tone conveyed annoyance at having to come up with the chair.  The room smelled slightly musty and stale; the heater was old and even at low setting heated up the room to a near uncomfortable level.Several metal door frames in the corridor have, over time, simply separated away from the wall where they meet the floor.  Rust is evident.  This is not a security risk, but looks bad.The lobby is clean with ample copies of the USA Today for those inclined.  Breakfast was ... bizarre in its minimal aspect: cold cereals, and a few donuts, and some very bad coffee.  That's it.  Why bother?There were no cracked mirrors, no visibly dirty linens, or anything of that sort - but the place reeks of either no budget, or else a lack of care.  The price is right, and if location is important, you won't be miserable staying here for a night on business.  But for anyone on a pleasure trip, move on to another place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r18520951-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>18520951</t>
+  </si>
+  <si>
+    <t>08/01/2008</t>
+  </si>
+  <si>
+    <t>Nice place compare to a cave</t>
+  </si>
+  <si>
+    <t>I travel continuously on Southern California.  I have stay in Quality inn in walnut about 7 times.  Let me tell you this Quality inn in walnut is a dump.  In my 8 year of traveling on business this is the first time a classify a hotel as a dump.  I don’t know what the previous reviewer was smoking when he said that this hotel  is one of the nicest hotels he stay inn... Yeahh Right......   I bet this is the manager or the staff trying to pump up the reviews.. Or   the reviewer stay  on caves.  Let me tell you about my experience there   7 out of 7 times I stay in Quality inn Walnut , there something that dont  not work in the rooms. Internet not working, phone, lights, fridge, ext.....  what really sucks is the beds very old.   5 out 7  times that sleep on theirs beds I end up in  a sink hole.  It seems that most of the staff there are young people and they don’t seem  to  care about their jobs. One time I requested for the person who check me inn to bump up the hotel rate( from 76 to 110 ) to get extra points since the company pays for the hotel. That was a mistake this young buck started to give me and attitude, for a minute there I though I was asking to date his girl friend or something to that...I travel continuously on Southern California.  I have stay in Quality inn in walnut about 7 times.  Let me tell you this Quality inn in walnut is a dump.  In my 8 year of traveling on business this is the first time a classify a hotel as a dump.  I don’t know what the previous reviewer was smoking when he said that this hotel  is one of the nicest hotels he stay inn... Yeahh Right......   I bet this is the manager or the staff trying to pump up the reviews.. Or   the reviewer stay  on caves.  Let me tell you about my experience there   7 out of 7 times I stay in Quality inn Walnut , there something that dont  not work in the rooms. Internet not working, phone, lights, fridge, ext.....  what really sucks is the beds very old.   5 out 7  times that sleep on theirs beds I end up in  a sink hole.  It seems that most of the staff there are young people and they don’t seem  to  care about their jobs. One time I requested for the person who check me inn to bump up the hotel rate( from 76 to 110 ) to get extra points since the company pays for the hotel. That was a mistake this young buck started to give me and attitude, for a minute there I though I was asking to date his girl friend or something to that effect? I did left a note to the manager and I never got a reply back.This place is a dump avoid it, now if you want to try great hotel just travel a few miles north and check out comfort inn in the city of El Monte, WowwwwwFairly new  hotel, great staff, beautiful rooms... cleans......NO I don’t work for them... I just travel all over southern California... on a weekly basis... I am just trying to save you some frustrations..Good luckMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>qiwalnut, Assistant General Manager at Quality Inn &amp; Suites Walnut, responded to this reviewResponded December 26, 2008</t>
+  </si>
+  <si>
+    <t>Responded December 26, 2008</t>
+  </si>
+  <si>
+    <t>I travel continuously on Southern California.  I have stay in Quality inn in walnut about 7 times.  Let me tell you this Quality inn in walnut is a dump.  In my 8 year of traveling on business this is the first time a classify a hotel as a dump.  I don’t know what the previous reviewer was smoking when he said that this hotel  is one of the nicest hotels he stay inn... Yeahh Right......   I bet this is the manager or the staff trying to pump up the reviews.. Or   the reviewer stay  on caves.  Let me tell you about my experience there   7 out of 7 times I stay in Quality inn Walnut , there something that dont  not work in the rooms. Internet not working, phone, lights, fridge, ext.....  what really sucks is the beds very old.   5 out 7  times that sleep on theirs beds I end up in  a sink hole.  It seems that most of the staff there are young people and they don’t seem  to  care about their jobs. One time I requested for the person who check me inn to bump up the hotel rate( from 76 to 110 ) to get extra points since the company pays for the hotel. That was a mistake this young buck started to give me and attitude, for a minute there I though I was asking to date his girl friend or something to that...I travel continuously on Southern California.  I have stay in Quality inn in walnut about 7 times.  Let me tell you this Quality inn in walnut is a dump.  In my 8 year of traveling on business this is the first time a classify a hotel as a dump.  I don’t know what the previous reviewer was smoking when he said that this hotel  is one of the nicest hotels he stay inn... Yeahh Right......   I bet this is the manager or the staff trying to pump up the reviews.. Or   the reviewer stay  on caves.  Let me tell you about my experience there   7 out of 7 times I stay in Quality inn Walnut , there something that dont  not work in the rooms. Internet not working, phone, lights, fridge, ext.....  what really sucks is the beds very old.   5 out 7  times that sleep on theirs beds I end up in  a sink hole.  It seems that most of the staff there are young people and they don’t seem  to  care about their jobs. One time I requested for the person who check me inn to bump up the hotel rate( from 76 to 110 ) to get extra points since the company pays for the hotel. That was a mistake this young buck started to give me and attitude, for a minute there I though I was asking to date his girl friend or something to that effect? I did left a note to the manager and I never got a reply back.This place is a dump avoid it, now if you want to try great hotel just travel a few miles north and check out comfort inn in the city of El Monte, WowwwwwFairly new  hotel, great staff, beautiful rooms... cleans......NO I don’t work for them... I just travel all over southern California... on a weekly basis... I am just trying to save you some frustrations..Good luckMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r15139087-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>15139087</t>
+  </si>
+  <si>
+    <t>04/19/2008</t>
+  </si>
+  <si>
+    <t>Surprisingly nice</t>
+  </si>
+  <si>
+    <t>We actually used this hotel with Choice points we'd earned by staying at Choice brand hotels. Most of the time I have found Choice brand average if that but this place was by far the nicest of any in their chain.  Clean, clean, clean and the room was LARGE and BEAUTIFUL. The surrounding area is just so so and you do need to drive to go eat but there are LOTS of nice places within a couple miles.  The free breakfast was a plus and it was not too far from the racetrack for the Nascar race. I would stay again even if it wasn't a freebee for me. Also I don't remember it being pink in color as someone else stated....it was beige.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2007</t>
+  </si>
+  <si>
+    <t>qiwalnut, Guest Service Manager at Quality Inn &amp; Suites Walnut, responded to this reviewResponded January 15, 2009</t>
+  </si>
+  <si>
+    <t>Responded January 15, 2009</t>
+  </si>
+  <si>
+    <t>We actually used this hotel with Choice points we'd earned by staying at Choice brand hotels. Most of the time I have found Choice brand average if that but this place was by far the nicest of any in their chain.  Clean, clean, clean and the room was LARGE and BEAUTIFUL. The surrounding area is just so so and you do need to drive to go eat but there are LOTS of nice places within a couple miles.  The free breakfast was a plus and it was not too far from the racetrack for the Nascar race. I would stay again even if it wasn't a freebee for me. Also I don't remember it being pink in color as someone else stated....it was beige.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r6901971-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>6901971</t>
+  </si>
+  <si>
+    <t>03/01/2007</t>
+  </si>
+  <si>
+    <t>Perfect For Rowland Heights</t>
+  </si>
+  <si>
+    <t>We only stayed in this motel one night. The hotel caters to a very cosmopolitan group. The cable TV includes a couple of Chinese language channels and when I went to check out there was Russian gentleman trying to convince the counter clerk to waive the room tax for his 45-day stay. I felt the motel was very busy as parking was scarce. The rooms were reasonably well kept. The only disappointment I had was that we had booked a two bedroom two bath suite and when we went to check in we were told the suite was not available.  We were eventually given two rooms but I still wonder what happened to the room we booked. No explanation, apology or discounts were offered and the front desk acted as if this was business as usual.MoreShow less</t>
+  </si>
+  <si>
+    <t>We only stayed in this motel one night. The hotel caters to a very cosmopolitan group. The cable TV includes a couple of Chinese language channels and when I went to check out there was Russian gentleman trying to convince the counter clerk to waive the room tax for his 45-day stay. I felt the motel was very busy as parking was scarce. The rooms were reasonably well kept. The only disappointment I had was that we had booked a two bedroom two bath suite and when we went to check in we were told the suite was not available.  We were eventually given two rooms but I still wonder what happened to the room we booked. No explanation, apology or discounts were offered and the front desk acted as if this was business as usual.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r5576384-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>5576384</t>
+  </si>
+  <si>
+    <t>08/06/2006</t>
+  </si>
+  <si>
+    <t>loved it!</t>
+  </si>
+  <si>
+    <t>this hotel was impressive for both value and service. also the decor was nice, and the room was very clean. we felt very safe there, and it was convenient because of being close to the freeway (but far enough away that there was no noise).  it was a great option for our budget!!MoreShow less</t>
+  </si>
+  <si>
+    <t>this hotel was impressive for both value and service. also the decor was nice, and the room was very clean. we felt very safe there, and it was convenient because of being close to the freeway (but far enough away that there was no noise).  it was a great option for our budget!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r4117720-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
+  </si>
+  <si>
+    <t>4117720</t>
+  </si>
+  <si>
+    <t>11/14/2005</t>
+  </si>
+  <si>
+    <t>Good, Clean Lodging</t>
+  </si>
+  <si>
+    <t>Stayed for 7 nights with a conference group of 24 persons.  Good clean lodgings, felt safe there.  Only a few unfortunate things: the phone in our room did not work (wheras others in our conference group did not have any problems with their phones); our door keys did not stay programmed until they were eventually replaced; only one washer and one dryer (that took a while to dry things); handwashed items hung in the bathroom tood 2 DAYS to dry!  But the free continental breakfasts (including eggs!) was a great start to a long conference day, and the shuttle service seemed good; the parking lot was in excellent shape and convenient.  However, our 2 month advance (and confirmed several times) booking was 'lost' and 3 of our rooms given away, so we wound up in other rooms than we had booked.  But despite the minor problems, it was over all a good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed for 7 nights with a conference group of 24 persons.  Good clean lodgings, felt safe there.  Only a few unfortunate things: the phone in our room did not work (wheras others in our conference group did not have any problems with their phones); our door keys did not stay programmed until they were eventually replaced; only one washer and one dryer (that took a while to dry things); handwashed items hung in the bathroom tood 2 DAYS to dry!  But the free continental breakfasts (including eggs!) was a great start to a long conference day, and the shuttle service seemed good; the parking lot was in excellent shape and convenient.  However, our 2 month advance (and confirmed several times) booking was 'lost' and 3 of our rooms given away, so we wound up in other rooms than we had booked.  But despite the minor problems, it was over all a good stay.More</t>
   </si>
 </sst>
 </file>
@@ -643,6 +1464,2139 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>59</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>81</v>
+      </c>
+      <c r="X6" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>99</v>
+      </c>
+      <c r="X8" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>108</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>4</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>4</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>117</v>
+      </c>
+      <c r="X10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>125</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+      <c r="K12" t="s">
+        <v>131</v>
+      </c>
+      <c r="L12" t="s">
+        <v>132</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>138</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" t="s">
+        <v>141</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>142</v>
+      </c>
+      <c r="X13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>145</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>146</v>
+      </c>
+      <c r="J14" t="s">
+        <v>147</v>
+      </c>
+      <c r="K14" t="s">
+        <v>148</v>
+      </c>
+      <c r="L14" t="s">
+        <v>149</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>150</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>151</v>
+      </c>
+      <c r="X14" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>165</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>166</v>
+      </c>
+      <c r="X16" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="s">
+        <v>171</v>
+      </c>
+      <c r="K17" t="s">
+        <v>172</v>
+      </c>
+      <c r="L17" t="s">
+        <v>173</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>174</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>176</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>177</v>
+      </c>
+      <c r="J18" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
+      <c r="O18" t="s">
+        <v>182</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>183</v>
+      </c>
+      <c r="X18" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
+        <v>191</v>
+      </c>
+      <c r="O19" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>192</v>
+      </c>
+      <c r="X19" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>200</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>203</v>
+      </c>
+      <c r="J21" t="s">
+        <v>204</v>
+      </c>
+      <c r="K21" t="s">
+        <v>205</v>
+      </c>
+      <c r="L21" t="s">
+        <v>206</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>207</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>208</v>
+      </c>
+      <c r="X21" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" t="s">
+        <v>214</v>
+      </c>
+      <c r="L22" t="s">
+        <v>215</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>216</v>
+      </c>
+      <c r="O22" t="s">
+        <v>108</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>217</v>
+      </c>
+      <c r="X22" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>221</v>
+      </c>
+      <c r="J23" t="s">
+        <v>222</v>
+      </c>
+      <c r="K23" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" t="s">
+        <v>224</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>225</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>226</v>
+      </c>
+      <c r="X23" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>230</v>
+      </c>
+      <c r="J24" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>225</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>234</v>
+      </c>
+      <c r="X24" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>237</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>238</v>
+      </c>
+      <c r="J25" t="s">
+        <v>239</v>
+      </c>
+      <c r="K25" t="s">
+        <v>240</v>
+      </c>
+      <c r="L25" t="s">
+        <v>241</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>225</v>
+      </c>
+      <c r="O25" t="s">
+        <v>108</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>234</v>
+      </c>
+      <c r="X25" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>244</v>
+      </c>
+      <c r="J26" t="s">
+        <v>245</v>
+      </c>
+      <c r="K26" t="s">
+        <v>246</v>
+      </c>
+      <c r="L26" t="s">
+        <v>247</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>248</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>249</v>
+      </c>
+      <c r="X26" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>253</v>
+      </c>
+      <c r="J27" t="s">
+        <v>254</v>
+      </c>
+      <c r="K27" t="s">
+        <v>255</v>
+      </c>
+      <c r="L27" t="s">
+        <v>256</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>257</v>
+      </c>
+      <c r="O27" t="s">
+        <v>182</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>249</v>
+      </c>
+      <c r="X27" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>260</v>
+      </c>
+      <c r="J28" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s">
+        <v>263</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>249</v>
+      </c>
+      <c r="X28" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>265</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>266</v>
+      </c>
+      <c r="J29" t="s">
+        <v>267</v>
+      </c>
+      <c r="K29" t="s">
+        <v>268</v>
+      </c>
+      <c r="L29" t="s">
+        <v>269</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>270</v>
+      </c>
+      <c r="O29" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>271</v>
+      </c>
+      <c r="X29" t="s">
+        <v>272</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>274</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>275</v>
+      </c>
+      <c r="J30" t="s">
+        <v>276</v>
+      </c>
+      <c r="K30" t="s">
+        <v>277</v>
+      </c>
+      <c r="L30" t="s">
+        <v>278</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>279</v>
+      </c>
+      <c r="O30" t="s">
+        <v>52</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>280</v>
+      </c>
+      <c r="X30" t="s">
+        <v>281</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>283</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>284</v>
+      </c>
+      <c r="J31" t="s">
+        <v>285</v>
+      </c>
+      <c r="K31" t="s">
+        <v>286</v>
+      </c>
+      <c r="L31" t="s">
+        <v>287</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>288</v>
+      </c>
+      <c r="O31" t="s">
+        <v>72</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>289</v>
+      </c>
+      <c r="X31" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>292</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>293</v>
+      </c>
+      <c r="J32" t="s">
+        <v>294</v>
+      </c>
+      <c r="K32" t="s">
+        <v>295</v>
+      </c>
+      <c r="L32" t="s">
+        <v>296</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>289</v>
+      </c>
+      <c r="X32" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>299</v>
+      </c>
+      <c r="J33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K33" t="s">
+        <v>301</v>
+      </c>
+      <c r="L33" t="s">
+        <v>302</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>289</v>
+      </c>
+      <c r="X33" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>27621</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>304</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>305</v>
+      </c>
+      <c r="J34" t="s">
+        <v>306</v>
+      </c>
+      <c r="K34" t="s">
+        <v>307</v>
+      </c>
+      <c r="L34" t="s">
+        <v>308</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>309</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_594.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_594.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="343">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>droods</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>I booked to stay here to try a different hotel in the area, I now realize how good I had it at the other establishments.There was only ever one person at the front desk, both on check in and check out there was one person being looked after - and a substantial wait for me given I was the only one waiting around. Everybody hates being made to wait around for no reason.The hotel itself it weird in layout, with stairs and ramps everywhere. Walking down the hallways and entering the room, I could tell people had smoked in here before.The room itself was practical, but quite old in decor. The bed was moderately comfortable and pillows ok. The shower was average, pressure could have been much better.What annoyed me most other than having to wait at the front desk, was the noise in the hotel. It appears to be made out of wood, so you can hear everyone walking around and the place creaks all night. Not a very relaxing stay.I would only recommend staying here if you got an amazing rate cheaper than other hotels in the area. I was not comfortable here.Otherwise the hotel was close to the freeway and had a nice looking pool.More</t>
   </si>
   <si>
+    <t>drdroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r486906032-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Sharon S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r457024127-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>Stayed at Quality Inn Walnut for a week while passing through town. The room was clean and efficient with everything I needed including fridge and microwave. Use of business center and wifi were free. Breakfast was varied with hot and cold choices  Location was centrally located for the various activities I needed to accomplish. I will stay again when I return to this area</t>
   </si>
   <si>
+    <t>dmfnswm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r421025020-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t>We stayed here in conjuction with the Take Tours service, and we were both surprised at the nice stay, but also disappointed in the location. We had a nice room, with nice service, a great breakfast each morning, and very few complaints. It was just a nice basic hotel stay!  However, the location was much farther away from Los Angeles than we thought, and everything in the town nearby is Asian.  But, overall, it was a decent stay, and I would recommend it if you want to be secluded in a relatively quiet town far from the main cities.More</t>
   </si>
   <si>
+    <t>kbmama</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r416931402-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>I just tried  to check in to the Quality Inn on Fairway Drive in Walnut, CA and opted to delay it because the person manning the front desk, Alex, is a very rude and arrogant young man. I was asked to wait because they are changing shifts. After waiting for about 5 minutes,  I asked how much longer it will take so I can gauge if I need to come back at a later time, he said just a few minutes longer. Then he said something under his breath, "it's not like it's an emergency." He finally called me up to the counter and I confronted him about his comment and told him that it was very rude of him to say that. He was surprised that I heard what he said and responded, "I was not talking to you." Instead of apologizing for the comment, he said that I was rude too for asking him "how much longer" with an attitude. Please educate and train your front desk personnel since they are the face of your hotel, to be courteous and be more professional...it goes a long way! I haven't even started my stay and I'm already looking forward to checking out.More</t>
   </si>
   <si>
+    <t>Dominic044</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r401696371-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -297,6 +315,9 @@
     <t>2nd floor is much nicer than 1st, stayed there for a baseball tournament, kids running around, which I didn't mind being I was there for a tournament and that what brings teams together and makes memories, went to work out, clock is an hour off, put me behind schedule I told the front desk stating people are from out of town and other countries, his answer was don't you have a phone.....the staff was the worst I have every had to deal with there answer for every question was we don't have that or no, the made service was great, maintenance of the building was terrible my son scrapped his arm on a nail in the main hallway , every night we were there kids were swimming till 3am, again I didn't mind the kids, the one night there was a different manager he kicked the kids out at 10:30, now there were a lot of kids in the pool, and they were probably louder than usual being the tournment was over and they were blowing off steam, he shut the lights off in the pool area with 20 kids running around, big safety issue. I do not recommend this hotel!More</t>
   </si>
   <si>
+    <t>kbong507</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r376307157-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -322,6 +343,9 @@
   </si>
   <si>
     <t>supply different kind of breakfast for different country. the location is perfect. shopping plaza with walking distance. you can all kind food in the plaza, including Asian supermarket and American supermarket as well.More</t>
+  </si>
+  <si>
+    <t>Dianne Y</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r369677141-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
@@ -356,6 +380,9 @@
 He asked me for my details like my name, my address, and phone #, and then my credit card information. At this point, we have not even discussed the final amount yet and he wanted to get my credit card details. He was very adamant about getting my credit card information, and of course I was hesitant to give it because we have not even agreed on the rate and final amount yet. Isn’t that a given? Shouldn’t the amount and the terms be clear to the customer first before getting her payment? I also wanted to know first if the transaction is cancelable, as well as the last day of cancellation before I agree to pay, and he was like, no give me your credit card information. That struck me as strange, not to mention unprofessional and rude. Even cashiers...This review is solely for my experience making a reservation. I called Quality Inn &amp; Suites (Walnut) to make a reservation. The guy who answered the phone, Robert M., was very rude and arrogant. I mentioned the company that I work for and I said that I know that we have a corporate rate, and I wanted to verify how much our corporate rate was. It was not until the third time that I mentioned the corporate rate that Robert actually told me what the rate was, which I have been requesting for from the time the conversation started. He asked me for my details like my name, my address, and phone #, and then my credit card information. At this point, we have not even discussed the final amount yet and he wanted to get my credit card details. He was very adamant about getting my credit card information, and of course I was hesitant to give it because we have not even agreed on the rate and final amount yet. Isn’t that a given? Shouldn’t the amount and the terms be clear to the customer first before getting her payment? I also wanted to know first if the transaction is cancelable, as well as the last day of cancellation before I agree to pay, and he was like, no give me your credit card information. That struck me as strange, not to mention unprofessional and rude. Even cashiers at the grocery would tell you the amount to be paid before they ask for your credit card. So I gave a summary of the transaction — rate/night, inclusive dates, final amount — and I asked him to confirm. He cut me off when I was still speaking and in a very irritated voice, he said, “NOW CAN I GET YOUR CREDIT CARD DETAILS?” Is that an acceptable way to talk to a customer? Why would someone hand over his or her credit card details for something that isn’t very clear to the customer yet? Aren’t your reservation agents trained to make a summary of the reservation, confirm with the guest if this is correct, AND THEN THAT’S THE ONLY TIME THEY ASK FOR PAYMENT. On top of that, he asked me to repeat information I’ve already told him several times! Which I wouldn’t have minded if he was courteous and polite!More</t>
   </si>
   <si>
+    <t>Theo H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r363695818-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -380,6 +407,9 @@
     <t>First time staying at this motel, but it did not disappoint at all ... except for a few things.- when I first arrived at the motel trying to check in, there was not place out in the front for me to park.  I had to double park to register.- there's only 1 elevator on the other side of the building and we had to walk a pretty long distance to get to our room.- the wall was pretty thin since I could hear the sound from the TV next door.- there was not enough tables for guests during breakfast time.  we had to sit on the couch to finish our breakfast.Other than that, the overnight stay was fine.  The room was clean and  spacious.  Free wifi in the room was decent.  Would definitely come back again.More</t>
   </si>
   <si>
+    <t>FASTASFASTCANBE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r320513426-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -404,6 +434,9 @@
     <t>For the most part, it was an okay place to stay.  We were looking for location.  The room had everything we needed and there were no problems.  The woman, working the front desk, was helpful with restaurant suggestions.More</t>
   </si>
   <si>
+    <t>SLODoug25</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r312813638-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -431,6 +464,9 @@
     <t>This past weekend I spent a night at the Quality Inn and Suites in Walnut, CA. My room was very clean and the bed was comfortable. Staff were very friendly and helpful and the breakfast was adequate. There are multiple restaurants within a few blocks of the hotel and a golf course right next door. In addition, access to the 60 freeway is quick and easy.More</t>
   </si>
   <si>
+    <t>Angelo T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r310234562-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -455,6 +491,9 @@
     <t>Stayed at this hotel because my family have to attend a 25th wedding anniversary of my cousin at Diamond Bar. The front desk agent Jessica was nice and gave us a room as per my request. The room overlook the pool and has a small refrigerator and supposedly a microwave oven. I called Jessica at front desk to report that my room does not have a microwave and she saw to it that a microwave gets to my room as we are spending 4 night at the hotel. Only observation is that during breakfast, the dining room was not big enough to accommodate the guests and some guests had to use the lobby's furniture to be able to eat comfortably. The rooms are clean but you can tell that the hotel is showing its age. Plenty of free parking and easy access to freeway. There were not much restaurant around to go to. I gave it a 4 star for the friendliness of the staff.More</t>
   </si>
   <si>
+    <t>mightysparks</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r283663559-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -482,6 +521,9 @@
     <t>I stayed here by myself for two nonconsecutive nights while doing a tour. The rooms and beds are big, but the 'pillows' on the bed are actually just like couch cushions and sleeping was very uncomfortable. The first room I had faced the pool and the second faced the street, but I had no issues with noise for either room. There is a free buffet breakfast in the morning which is ok. It's not really close to anything though, and you have to walk about 15-20 minutes to get to places to eat. If you're just looking for somewhere for a night or two, it's fine but if you want to actually sight-see or get out it's probably not the best choice.More</t>
   </si>
   <si>
+    <t>biologygrl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r264100381-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -500,6 +542,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>Ben S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r262119516-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -527,6 +572,9 @@
     <t>Great Hotel!!! Loved Everything about it.  Staff went above and beyond what they are paid to do.  Breakfast was great.  Lots of options, I enjoyed the sausage and made to order waffles.  I will be staying here next time I need a hotel.More</t>
   </si>
   <si>
+    <t>Andrea P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r251172501-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -548,6 +596,9 @@
     <t>Just stayed at this hotel for the night, not much quality though. The room what needed to do to stay for the night however there are a few problems that I have to point out to those who want to stay there. The room smelled like bleach right as I walked in which wasn't cool but at least I hope it was used to have the room cleaned..CORRECTLY. I walked over to the bed and almost every step I took the floor would creak, it was a little too much for me not to pass it up. But my biggest problem for the room overall was the internet access. I called the front desk a few times asking about the internet and they told me "yes, we're aware of the problem, were working on it." My biggest annoyance was that the front desk associate didn't bother to let me know about it when I was checking in..I think it's the least you could. It does what any simple hotel needs, but don't expect anything amazing.More</t>
   </si>
   <si>
+    <t>Steven K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r246049758-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -578,6 +629,9 @@
     <t>The hotel is old, room cleanest very poor, pillows so small, like we use for decorates the sofa. ??????The bathroom:  washing basin don't understand why is so low. I mean no standard high. The tab for bathtub almost brokenThis hotel that i can said good about it! It's the bed. Very nice and comfortableMore</t>
   </si>
   <si>
+    <t>J J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r229030755-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -605,6 +659,9 @@
     <t>The room cleainess is a hit and miss situation. Building is old but ok. The security is not very tight where the side doors are usually left opened.Be aware that You Will Be Scold if you try to take breakfast to eat in your room, or grab a quick piece to go out (to your travel spots cus you slept late). THERE IS NO SIGN but the staff stopped me in front of people as if I am a thief. Talk about being humiliated. They said that's the policy and you can only eat in the lobby where sometimes there isn't any seat. Well then, at least put up a sign!!! I've stayed in many hotels and this is the first one disallow you to bring food into the room to eat.More</t>
   </si>
   <si>
+    <t>Jay L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r209965748-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -626,6 +683,9 @@
     <t>I do not know what people expect from this place. Do people expect 5 star luxury resort with spa, jacuzzi, fine dining, etc, found in Sheraton or Hilton at this place? I've stayed here a couple of times, and I was satisfied with my room. Both times, I had 1 king bed. I felt it was clean, comfortable, and the bathroom with a tub, was clean too.I do like their breakfast selection, more than other qualities, with american and asian selection. their lobby is spacious and big, and so is their dining area and tables. The only downside, is their location, meaning no shops or restaurants within walking distance. You need a car to go anywhere. If you don't have a car, then you are stuck here.More</t>
   </si>
   <si>
+    <t>lizm1616</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r205754190-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -653,6 +713,9 @@
     <t>I stay in hotels week in and week out.  But this has been the worst of the year.  Don't stay here for business.  I'm not fussy. But when you check in on a 107 degree day in LA, it will be 2016 degrees when you finally arrive at your room with this awfuk hotel.More</t>
   </si>
   <si>
+    <t>LeanneLangan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r200366134-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -680,6 +743,9 @@
     <t>This hotel always is our first choice for visiting family and friends in southern calif. Great rooms, a pool and free breakfast. Easy freeway access also. Outdoor pool is always clean and the spa is refreshing also.More</t>
   </si>
   <si>
+    <t>Kyle K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r151097952-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -707,6 +773,9 @@
     <t>dear head of the hotel,the front desk clerk was very rude and impolite. i think her name was mish or something close to that name. she didn't seem like she wanted to help me out and seemed very aggrevated when i was trying to book a room. she didn't seem very willing to help out and seemed like she was just being there just to pass the time and make easy money. she don't belong in the customer service and she don't belong in that hotel as a clerk; she should rather be a room cleaning maid or something that don't deal with customer service. she is way too rude to be in customer service. before she even thinks about working in customer service she needs to get her attitude in check. if you guys have her there working as a front desk clerk your bound to get that place with no customers and go out of business. please consider moving her to a different department or remove her from that position because she has an attitude problem and lack of motivation to deal with customers like me who will never try to book a room due to bad service and unwillingness to help with a friendly approach.thank you for your time and hope you take my word into consideration.More</t>
   </si>
   <si>
+    <t>Dale K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r149733473-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -729,6 +798,9 @@
   </si>
   <si>
     <t>Wow, these folks have gone WAY overboard with these things.  Of course there's one in the bathroom which seems pretty standard these days.  BUT ALSO, they have the TV on one.  I was watching the AM news when I went to the bathroom and shaved, brushed my teeth and showered.  As I was drying off I realized the TV was OFF.  And if that's not enough the heater / AC unit is on one also.  Last night was the coldest night here in 22 years according to the weatherman.  In the middle of the night I realized the heater had turned off.  I had enough blankets to keep me warm but when I got out of bed the room was freezing.  These folks have taken things way to far.  This was my first visit here and it'll be my last.  A very dated property.More</t>
+  </si>
+  <si>
+    <t>nikOregon</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r149292649-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
@@ -755,6 +827,9 @@
 However, the redeeming...The lobby looks fantastic, but that appearance does not carry over to the rest of the Hotel.  The rooms appear nice at first look, but they do not stand up to a long appraisal.  The painting is very sloppy, with missed spots on the ceiling above the bed, peeling and sloppy wallpaper work and the rooms look worn. Single pane windows also not very good at keeping out weather and noise.  The elevator has a evil mind of its own, the door shutting rapidly, and the retract mechanism for the door sometimes not working.  And to increase your nervousness, I have never heard of Amtech elevators!  The hallways are dusty, with bits of paper etc on the floor.  My daughters were given a room where the floor squeaked so bad when walking in the room we had to  move them.The "dining area" has chairs and tables that are way to big for the area they use, so much so you cannot move between tables.  The breakfast is heavy on Asian food, their main clientele.Housekeeping is hit or miss.  The coffee maker had a used filter in it when we checked in and was never cleaned by housekeeping our entire stay.  Towels may or may not be replaced.  Alarm clock fastened to the outlet so it could not be moved (or stolen)  One room had the pole lamp with a 30 degree tilt to the side.However, the redeeming feature was the front desk staff, friendly, helpful and a delight to work with.More</t>
   </si>
   <si>
+    <t>Chickentrucker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r123061559-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -782,6 +857,9 @@
     <t>We stay here frequently for business.  This hotel is quiet, very clean, and very comfortable.  The breakfast is very good and plenty of choices, the staff is pleasant, they have a shuttle, good neiborhood, and did I say quiet? plenty of places to eat nearby.The elevator is very, very slow.  It likes to close the doors while you're entering/exiting, it doesn't really hurt, but its very annoying.Very nice pool and spa.More</t>
   </si>
   <si>
+    <t>Jenny8789</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r120284103-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -803,6 +881,9 @@
     <t>I was driving from WA to PHX, and had decided late on Saturday night that I wasn't going to make all the way into AZ, used the "around me" app in my phone to call several hotels in this area.  NONE were available, or weren't pet friendly..  Finally I called this Quality Inn, the gentleman on duty was very polite, took the time to give me excellent directions to the property, the room was perfect, quiet, and my little dog and I slept very well.  I'm writing the review primarily to give a big "thank you" to the employee who helped out late on a Saturday night.More</t>
   </si>
   <si>
+    <t>Lisbutler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r116548893-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -819,6 +900,9 @@
   </si>
   <si>
     <t>We stayed for 3 nights in 2 rooms that were next to eachother, but not connected. Check in was easy and quick. I requested a crib and it arrived promptly. The hallways are not air conditioned, and the rooms did not have their air conditioning on, so it took a while to cool down. The refrigerator was great to keep our drinks and the baby's milk cold. The room was spacious but little things like the toilet seat being broken and the outlets being loose were kind of annoying. The location of the hotel was convenient- right off the freeway and near Colima street where there are plenty of restaurants, grocery stores, etc. Having a complementary breakfast was great for the kids and was enough to hold us over til lunch. We are repeat customers here and will most likely stay here again if needed. More</t>
+  </si>
+  <si>
+    <t>Danhedonia</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r54962247-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
@@ -860,6 +944,9 @@
 There were no cracked mirrors, no visibly dirty linens, or anything of that sort - but the place reeks of either no budget, or else a lack...First - there is nothing 'obviously' wrong with the QI-Walnut, and the staff were vaguely helpful when help was firmly requested.But there is nothing 'good' about this property, either.  Rooms are average, and the property looks dog-eared and needs renovation.  Staff are pleasant but indifferent.  Location is a mixed blessing - near the freeway makes it handy to get around for appointments, but also there is some noise.Telling details: when I check in, there was no chair at the desk in my room.  Uh ...???  A chair was brought with a weak "sorry 'bout that" - I didn't seek nor need an apology, but the tone conveyed annoyance at having to come up with the chair.  The room smelled slightly musty and stale; the heater was old and even at low setting heated up the room to a near uncomfortable level.Several metal door frames in the corridor have, over time, simply separated away from the wall where they meet the floor.  Rust is evident.  This is not a security risk, but looks bad.The lobby is clean with ample copies of the USA Today for those inclined.  Breakfast was ... bizarre in its minimal aspect: cold cereals, and a few donuts, and some very bad coffee.  That's it.  Why bother?There were no cracked mirrors, no visibly dirty linens, or anything of that sort - but the place reeks of either no budget, or else a lack of care.  The price is right, and if location is important, you won't be miserable staying here for a night on business.  But for anyone on a pleasure trip, move on to another place.More</t>
   </si>
   <si>
+    <t>ricanmen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r18520951-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -887,6 +974,9 @@
     <t>I travel continuously on Southern California.  I have stay in Quality inn in walnut about 7 times.  Let me tell you this Quality inn in walnut is a dump.  In my 8 year of traveling on business this is the first time a classify a hotel as a dump.  I don’t know what the previous reviewer was smoking when he said that this hotel  is one of the nicest hotels he stay inn... Yeahh Right......   I bet this is the manager or the staff trying to pump up the reviews.. Or   the reviewer stay  on caves.  Let me tell you about my experience there   7 out of 7 times I stay in Quality inn Walnut , there something that dont  not work in the rooms. Internet not working, phone, lights, fridge, ext.....  what really sucks is the beds very old.   5 out 7  times that sleep on theirs beds I end up in  a sink hole.  It seems that most of the staff there are young people and they don’t seem  to  care about their jobs. One time I requested for the person who check me inn to bump up the hotel rate( from 76 to 110 ) to get extra points since the company pays for the hotel. That was a mistake this young buck started to give me and attitude, for a minute there I though I was asking to date his girl friend or something to that...I travel continuously on Southern California.  I have stay in Quality inn in walnut about 7 times.  Let me tell you this Quality inn in walnut is a dump.  In my 8 year of traveling on business this is the first time a classify a hotel as a dump.  I don’t know what the previous reviewer was smoking when he said that this hotel  is one of the nicest hotels he stay inn... Yeahh Right......   I bet this is the manager or the staff trying to pump up the reviews.. Or   the reviewer stay  on caves.  Let me tell you about my experience there   7 out of 7 times I stay in Quality inn Walnut , there something that dont  not work in the rooms. Internet not working, phone, lights, fridge, ext.....  what really sucks is the beds very old.   5 out 7  times that sleep on theirs beds I end up in  a sink hole.  It seems that most of the staff there are young people and they don’t seem  to  care about their jobs. One time I requested for the person who check me inn to bump up the hotel rate( from 76 to 110 ) to get extra points since the company pays for the hotel. That was a mistake this young buck started to give me and attitude, for a minute there I though I was asking to date his girl friend or something to that effect? I did left a note to the manager and I never got a reply back.This place is a dump avoid it, now if you want to try great hotel just travel a few miles north and check out comfort inn in the city of El Monte, WowwwwwFairly new  hotel, great staff, beautiful rooms... cleans......NO I don’t work for them... I just travel all over southern California... on a weekly basis... I am just trying to save you some frustrations..Good luckMore</t>
   </si>
   <si>
+    <t>Birdmombjk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r15139087-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -914,6 +1004,9 @@
     <t>We actually used this hotel with Choice points we'd earned by staying at Choice brand hotels. Most of the time I have found Choice brand average if that but this place was by far the nicest of any in their chain.  Clean, clean, clean and the room was LARGE and BEAUTIFUL. The surrounding area is just so so and you do need to drive to go eat but there are LOTS of nice places within a couple miles.  The free breakfast was a plus and it was not too far from the racetrack for the Nascar race. I would stay again even if it wasn't a freebee for me. Also I don't remember it being pink in color as someone else stated....it was beige.More</t>
   </si>
   <si>
+    <t>CasualView</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r6901971-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -932,6 +1025,9 @@
     <t>We only stayed in this motel one night. The hotel caters to a very cosmopolitan group. The cable TV includes a couple of Chinese language channels and when I went to check out there was Russian gentleman trying to convince the counter clerk to waive the room tax for his 45-day stay. I felt the motel was very busy as parking was scarce. The rooms were reasonably well kept. The only disappointment I had was that we had booked a two bedroom two bath suite and when we went to check in we were told the suite was not available.  We were eventually given two rooms but I still wonder what happened to the room we booked. No explanation, apology or discounts were offered and the front desk acted as if this was business as usual.More</t>
   </si>
   <si>
+    <t>travelwhiz1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r5576384-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
   </si>
   <si>
@@ -948,6 +1044,9 @@
   </si>
   <si>
     <t>this hotel was impressive for both value and service. also the decor was nice, and the room was very clean. we felt very safe there, and it was convenient because of being close to the freeway (but far enough away that there was no noise).  it was a great option for our budget!!More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33234-d251537-r4117720-Quality_Inn_Suites_Walnut-Walnut_California.html</t>
@@ -1468,43 +1567,47 @@
       <c r="A2" t="n">
         <v>27621</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -1524,50 +1627,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>27621</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1587,50 +1694,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>27621</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1644,50 +1755,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>27621</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1699,56 +1814,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>27621</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1760,56 +1879,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>27621</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1821,56 +1944,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="X7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>27621</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>99</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1888,56 +2015,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="X8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="Y8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>27621</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="O9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1949,56 +2080,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>27621</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>120</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2016,47 +2151,51 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>27621</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
@@ -2073,56 +2212,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="X11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Y11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>27621</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="J12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="K12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2140,56 +2283,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="X12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>27621</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>148</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="K13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -2207,56 +2354,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="X13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>27621</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>157</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="J14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="K14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2274,56 +2425,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="X14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>27621</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2337,50 +2492,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>27621</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="J16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2396,56 +2555,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="X16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="Y16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>27621</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>184</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -2463,50 +2626,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>27621</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>192</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>177</v>
+        <v>194</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="L18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="O18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2518,56 +2685,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="X18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="Y18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>27621</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O19" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -2583,56 +2754,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="X19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="Y19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>27621</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>213</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" t="n">
         <v>3</v>
@@ -2656,50 +2831,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>27621</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>221</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="J21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="K21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="L21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -2715,56 +2894,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="X21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="Y21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>27621</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>231</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="J22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="K22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="O22" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -2786,56 +2969,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="X22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="Y22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>27621</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>241</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="J23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="K23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="L23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="O23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2849,56 +3036,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="X23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="Y23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>27621</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>251</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="L24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="O24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
         <v>1</v>
@@ -2920,56 +3111,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="X24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="Y24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>27621</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>260</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="J25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="K25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="L25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="O25" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
@@ -2991,56 +3186,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="X25" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="Y25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>27621</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>267</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="J26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="K26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="L26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3062,56 +3261,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="X26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Y26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>27621</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>277</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="J27" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="K27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="L27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="O27" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -3131,47 +3334,51 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="X27" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Y27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>27621</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>285</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="J28" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="K28" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="L28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
@@ -3198,56 +3405,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="X28" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="Y28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>27621</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>292</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="J29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="K29" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="L29" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P29" t="n">
         <v>3</v>
@@ -3269,56 +3480,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="X29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="Y29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>27621</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>302</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="J30" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="K30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="L30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3340,56 +3555,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="X30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="Y30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>27621</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>312</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="J31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="K31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="L31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="O31" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3411,47 +3630,51 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="X31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="Y31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>27621</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>322</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="J32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="K32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="L32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
@@ -3478,47 +3701,51 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="X32" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="Y32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>27621</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>329</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="J33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="K33" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="L33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
@@ -3535,47 +3762,51 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="X33" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="Y33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>27621</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>336</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="J34" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="K34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="L34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
@@ -3594,7 +3825,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
